--- a/genetic_algorithm/output4.xlsx
+++ b/genetic_algorithm/output4.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasbudig/Documents/Programmieren/python/attack-hypotheses-generation/genetic_algorithm/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95D22DF-86AE-0640-9515-D5793AC7AFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -79,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +147,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -189,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +246,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +298,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,14 +491,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="V195" sqref="V195"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -564,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -629,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -694,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -759,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -824,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -889,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -954,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1019,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1084,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1149,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1214,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1279,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1344,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1409,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1474,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1539,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1604,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1669,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1734,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1799,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1864,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1929,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1994,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2059,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2124,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2189,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2254,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2319,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2384,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2449,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2514,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2579,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2644,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2709,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2774,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2839,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2904,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2969,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3034,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3099,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3164,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3229,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3294,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3359,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3424,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3489,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3554,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3619,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3684,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3749,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3814,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3879,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3944,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4009,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4074,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4139,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4204,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4269,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4334,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4399,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4464,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4529,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4594,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4659,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4724,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4789,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4854,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4919,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4984,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5049,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5114,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5179,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5244,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5309,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5374,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5439,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5504,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5569,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5634,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5699,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5764,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5829,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5894,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5959,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6024,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6089,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6154,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6219,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6284,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6349,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6414,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6479,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6544,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6609,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6674,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6739,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6804,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6869,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6934,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6999,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7064,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7129,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7194,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7259,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7324,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7389,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7454,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7519,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7584,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7649,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7714,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7779,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7844,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7909,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7974,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8039,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8104,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8169,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8234,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8299,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8364,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8429,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8494,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -8559,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -8624,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -8689,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -8754,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -8819,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -8884,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -8949,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9014,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9079,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9144,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9209,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9274,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9339,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9404,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -9469,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -9534,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -9599,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -9664,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -9729,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -9794,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -9859,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -9924,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -9989,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10054,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10119,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10184,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10249,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10314,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10379,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10444,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10509,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -10574,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -10639,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -10704,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -10769,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -10834,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -10899,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -10964,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11029,7 +11092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11094,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11159,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11224,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11289,7 +11352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11354,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11419,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11484,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11549,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11614,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -11679,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -11744,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -11809,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -11874,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -11939,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -12004,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -12069,7 +12132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -12134,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12199,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12264,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12329,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12394,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12459,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -12524,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12589,7 +12652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12654,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12719,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12784,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -12849,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12914,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12979,72 +13042,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>0</v>
       </c>
       <c r="B194">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="C194">
-        <v>0.4615384615384615</v>
+        <v>0.46153846153846151</v>
       </c>
       <c r="D194">
         <v>0.5</v>
       </c>
       <c r="E194">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="F194">
-        <v>0.4615384615384615</v>
+        <v>0.46153846153846151</v>
       </c>
       <c r="G194">
-        <v>0.4705882352941176</v>
+        <v>0.47058823529411759</v>
       </c>
       <c r="H194">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I194">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="J194">
         <v>0.4210526315789474</v>
       </c>
       <c r="K194">
-        <v>0.4761904761904762</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="L194">
-        <v>0.3749999999999999</v>
+        <v>0.37499999999999989</v>
       </c>
       <c r="M194">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="N194">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O194">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P194">
         <v>0.5</v>
       </c>
       <c r="Q194">
-        <v>0.4615384615384615</v>
+        <v>0.46153846153846151</v>
       </c>
       <c r="R194">
         <v>0.4705882352941177</v>
       </c>
       <c r="S194">
-        <v>0.4848484848484849</v>
+        <v>0.48484848484848492</v>
       </c>
       <c r="T194">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="U194">
-        <v>0.7272727272727272</v>
-      </c>
-    </row>
-    <row r="195" spans="1:21">
+        <v>0.72727272727272718</v>
+      </c>
+      <c r="V194">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -13110,6 +13176,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:U193">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>